--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105793.6555326715</v>
+        <v>19028899.64080482</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>105793.6555326715</v>
+        <v>19028899.64080482</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>117138.1243457013</v>
+        <v>14976980.20759703</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117138.1243457013</v>
+        <v>14976980.20759703</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1607896395.481688</v>
+        <v>49793483.29375011</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13130.50463245724</v>
+        <v>1351891.652946161</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25158.49533511645</v>
+        <v>2534707.996313215</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37186.48603777563</v>
+        <v>3717524.339680271</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53152.41744005781</v>
+        <v>4264240.624369767</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67573.04954207073</v>
+        <v>5218798.337719149</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>81686.53327124607</v>
+        <v>6132297.305045578</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>95666.25143249059</v>
+        <v>7045796.272372006</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>109865.3018746538</v>
+        <v>7959295.239698431</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>125350.4869786757</v>
+        <v>8603449.573000912</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>138615.9047981515</v>
+        <v>9687869.431553114</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>151468.0068196988</v>
+        <v>10721476.81799802</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>164320.1088412461</v>
+        <v>11755084.20444292</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>177172.2108627934</v>
+        <v>12788691.59088783</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>190902.8259007245</v>
+        <v>13673974.31307948</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>211352.237490599</v>
+        <v>13544856.69804757</v>
       </c>
     </row>
   </sheetData>
